--- a/biology/Botanique/Sansevieria_hyacinthoides/Sansevieria_hyacinthoides.xlsx
+++ b/biology/Botanique/Sansevieria_hyacinthoides/Sansevieria_hyacinthoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sansevieria hyacinthoides est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Basionyme : Aloe hyacinthoides L.
 Sansevieria angustiflora Lindb. (1871)
@@ -568,10 +582,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée aux feuilles lancéolées attegnant 70 cm de haut.
-Les feuilles sont striées vert sombre avec des bandes plus pâles. Elles sont marginées de brun rouge (ce qui le différencie de Sansevieria trifasciata[1].
+Les feuilles sont striées vert sombre avec des bandes plus pâles. Elles sont marginées de brun rouge (ce qui le différencie de Sansevieria trifasciata.
 Fleurs en épis hauts de 80 cm, blanches ou jaune pâle. Les fleurs sont groupées par groupe de deux jusqu'à six le long de la hampe florale. Le tube de la fleur est plus long que la corolle (ce dernier critère le différencie aussi de Sansevieria trifasciata)
 </t>
         </is>
@@ -601,9 +617,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria hyacinthoides est originaire de l'Afrique de l'Est, depuis le Kenya jusqu'en Afrique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria hyacinthoides est originaire de l'Afrique de l'Est, depuis le Kenya jusqu'en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -632,9 +650,11 @@
           <t>Plante invasive</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria hyacinthoides a été introduit comme plante ornementale en Floride et aux Petites Antilles au XIXe siècle et dans les autres îles des Antilles au début du XXe siècle. La plante se propageant par les graines, fragments de feuilles ou par les rhizomes, peut recouvrir densément des surfaces plus ou moins importantes en éradiquant toute autre végétation. Elle est considérée en Floride et dans les Antilles comme invasive et représente une menace pour la flore locale[2] et particulièrement aux Îles Caïmans[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria hyacinthoides a été introduit comme plante ornementale en Floride et aux Petites Antilles au XIXe siècle et dans les autres îles des Antilles au début du XXe siècle. La plante se propageant par les graines, fragments de feuilles ou par les rhizomes, peut recouvrir densément des surfaces plus ou moins importantes en éradiquant toute autre végétation. Elle est considérée en Floride et dans les Antilles comme invasive et représente une menace pour la flore locale et particulièrement aux Îles Caïmans.
 </t>
         </is>
       </c>
